--- a/Code/Results/Cases/Case_4_169/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_169/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.98857663685629</v>
+        <v>15.38346847130473</v>
       </c>
       <c r="C2">
-        <v>6.982219468850499</v>
+        <v>7.280544208531666</v>
       </c>
       <c r="D2">
-        <v>6.917738035834942</v>
+        <v>6.055608943476014</v>
       </c>
       <c r="E2">
-        <v>7.845177334008128</v>
+        <v>11.91086431536556</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>68.48907484149545</v>
+        <v>66.50200929565972</v>
       </c>
       <c r="H2">
-        <v>19.47135823870215</v>
+        <v>23.26262981018506</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.13633239948611</v>
+        <v>11.74920845148932</v>
       </c>
       <c r="L2">
-        <v>6.24459670329256</v>
+        <v>10.12821394648012</v>
       </c>
       <c r="M2">
-        <v>9.909298254583438</v>
+        <v>15.73052549114441</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.27246949820787</v>
+        <v>15.30741413924237</v>
       </c>
       <c r="C3">
-        <v>6.822478539096305</v>
+        <v>7.217209755070515</v>
       </c>
       <c r="D3">
-        <v>6.433204174234539</v>
+        <v>5.949011235723607</v>
       </c>
       <c r="E3">
-        <v>7.79408053796187</v>
+        <v>11.91434090046809</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>65.79982112331652</v>
+        <v>65.73936761230179</v>
       </c>
       <c r="H3">
-        <v>18.98833458321376</v>
+        <v>23.16442790394495</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.447018273858122</v>
+        <v>11.71458864186634</v>
       </c>
       <c r="L3">
-        <v>6.17786057154566</v>
+        <v>10.13973818284178</v>
       </c>
       <c r="M3">
-        <v>9.678253417788239</v>
+        <v>15.74535004385269</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.82330832419347</v>
+        <v>15.26571530231473</v>
       </c>
       <c r="C4">
-        <v>6.722147691410981</v>
+        <v>7.176646755053707</v>
       </c>
       <c r="D4">
-        <v>6.167915606451039</v>
+        <v>5.884459735914807</v>
       </c>
       <c r="E4">
-        <v>7.764915755232633</v>
+        <v>11.91742384518966</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>64.12856538972581</v>
+        <v>65.27427657860711</v>
       </c>
       <c r="H4">
-        <v>18.69396341909301</v>
+        <v>23.10615278455427</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.002234240299176</v>
+        <v>11.697429111409</v>
       </c>
       <c r="L4">
-        <v>6.139781284736189</v>
+        <v>10.14822343438494</v>
       </c>
       <c r="M4">
-        <v>9.541097549300344</v>
+        <v>15.75765658065341</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.63811127690802</v>
+        <v>15.24999626968472</v>
       </c>
       <c r="C5">
-        <v>6.680677362589969</v>
+        <v>7.159696210582239</v>
       </c>
       <c r="D5">
-        <v>6.057697559607369</v>
+        <v>5.858418593625465</v>
       </c>
       <c r="E5">
-        <v>7.753574304070295</v>
+        <v>11.91891893549789</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>63.44309828727356</v>
+        <v>65.08569954138585</v>
       </c>
       <c r="H5">
-        <v>18.57462155439143</v>
+        <v>23.0829230476965</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.815498400001733</v>
+        <v>11.69147340558386</v>
       </c>
       <c r="L5">
-        <v>6.124983697291154</v>
+        <v>10.1520358042833</v>
       </c>
       <c r="M5">
-        <v>9.486429664807275</v>
+        <v>15.76347740914248</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.60723636716886</v>
+        <v>15.24746350080014</v>
       </c>
       <c r="C6">
-        <v>6.673755424435535</v>
+        <v>7.156856186138648</v>
       </c>
       <c r="D6">
-        <v>6.039271226062269</v>
+        <v>5.854111535101054</v>
       </c>
       <c r="E6">
-        <v>7.751723538642402</v>
+        <v>11.91918162331141</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>63.32903024910094</v>
+        <v>65.05444835294465</v>
       </c>
       <c r="H6">
-        <v>18.55484408011568</v>
+        <v>23.0790973122014</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.784158104611885</v>
+        <v>11.69054726128167</v>
       </c>
       <c r="L6">
-        <v>6.122569798526574</v>
+        <v>10.15269026412983</v>
       </c>
       <c r="M6">
-        <v>9.477427224325238</v>
+        <v>15.76449262011929</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.82081911181143</v>
+        <v>15.26549813294288</v>
       </c>
       <c r="C7">
-        <v>6.721590798783859</v>
+        <v>7.176419857143007</v>
       </c>
       <c r="D7">
-        <v>6.166437592201421</v>
+        <v>5.884107416709463</v>
       </c>
       <c r="E7">
-        <v>7.764760615849868</v>
+        <v>11.91744304135824</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>64.1193379325408</v>
+        <v>65.27172931044473</v>
       </c>
       <c r="H7">
-        <v>18.69235135038643</v>
+        <v>23.10583739134967</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.999738137609233</v>
+        <v>11.69734458439877</v>
       </c>
       <c r="L7">
-        <v>6.139578815494806</v>
+        <v>10.14827341354336</v>
       </c>
       <c r="M7">
-        <v>9.540355268674897</v>
+        <v>15.75773181975839</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.74374578133113</v>
+        <v>15.35621801892016</v>
       </c>
       <c r="C8">
-        <v>6.927595248376933</v>
+        <v>7.259054491909724</v>
       </c>
       <c r="D8">
-        <v>6.752603334325707</v>
+        <v>6.018690002533626</v>
       </c>
       <c r="E8">
-        <v>7.827093411387841</v>
+        <v>11.91186641047746</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>67.56632415036134</v>
+        <v>66.23848425260593</v>
       </c>
       <c r="H8">
-        <v>19.30438870856547</v>
+        <v>23.22835620715694</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.903086545234711</v>
+        <v>11.73642560493706</v>
       </c>
       <c r="L8">
-        <v>6.220979882261357</v>
+        <v>10.13189511640592</v>
       </c>
       <c r="M8">
-        <v>9.828681521875907</v>
+        <v>15.73497209314916</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.47118780818441</v>
+        <v>15.57295472600438</v>
       </c>
       <c r="C9">
-        <v>7.314749614831712</v>
+        <v>7.407791231284778</v>
       </c>
       <c r="D9">
-        <v>7.886241942362713</v>
+        <v>6.288085734798439</v>
       </c>
       <c r="E9">
-        <v>7.967415261446767</v>
+        <v>11.90844162672656</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>74.14468274309824</v>
+        <v>68.15266169559034</v>
       </c>
       <c r="H9">
-        <v>20.51979839154382</v>
+        <v>23.48420979387858</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.50690791164971</v>
+        <v>11.84521292168214</v>
       </c>
       <c r="L9">
-        <v>6.403963832895826</v>
+        <v>10.11095094396574</v>
       </c>
       <c r="M9">
-        <v>10.42971511411425</v>
+        <v>15.71575129746281</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.85647730530446</v>
+        <v>15.75462195375718</v>
       </c>
       <c r="C10">
-        <v>7.590644074083143</v>
+        <v>7.508941384810345</v>
       </c>
       <c r="D10">
-        <v>8.648090489945625</v>
+        <v>6.487156493430517</v>
       </c>
       <c r="E10">
-        <v>8.082361343456519</v>
+        <v>11.91048630107894</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.84562130818034</v>
+        <v>69.56104018032231</v>
       </c>
       <c r="H10">
-        <v>21.41973112967607</v>
+        <v>23.68106864910666</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.58808563656398</v>
+        <v>11.94416281100519</v>
       </c>
       <c r="L10">
-        <v>6.553174985489369</v>
+        <v>10.10236166170082</v>
       </c>
       <c r="M10">
-        <v>10.89098764140719</v>
+        <v>15.71709022764091</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.47556915919112</v>
+        <v>15.84183585341287</v>
       </c>
       <c r="C11">
-        <v>7.714762402823745</v>
+        <v>7.553191085169376</v>
       </c>
       <c r="D11">
-        <v>8.980098239298991</v>
+        <v>6.577519345354621</v>
       </c>
       <c r="E11">
-        <v>8.137423651814238</v>
+        <v>11.91240243474114</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>80.9531843880512</v>
+        <v>70.20024663608449</v>
       </c>
       <c r="H11">
-        <v>21.83042612172461</v>
+        <v>23.77241003029418</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.06009786336421</v>
+        <v>11.99315841865515</v>
       </c>
       <c r="L11">
-        <v>6.624391792231695</v>
+        <v>10.09992647656447</v>
       </c>
       <c r="M11">
-        <v>11.1047960114867</v>
+        <v>15.72104419807414</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.7065323940493</v>
+        <v>15.87549138891311</v>
       </c>
       <c r="C12">
-        <v>7.761608740638875</v>
+        <v>7.569693419000085</v>
       </c>
       <c r="D12">
-        <v>9.103803366566437</v>
+        <v>6.611673618744511</v>
       </c>
       <c r="E12">
-        <v>8.158690821728015</v>
+        <v>11.91326935124676</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>81.7467723316344</v>
+        <v>70.44192457230845</v>
       </c>
       <c r="H12">
-        <v>21.98613534655066</v>
+        <v>23.80724284476705</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.23610135908161</v>
+        <v>12.0122700233172</v>
       </c>
       <c r="L12">
-        <v>6.651852105949151</v>
+        <v>10.09921557206447</v>
       </c>
       <c r="M12">
-        <v>11.1863151798139</v>
+        <v>15.72302088022226</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.65694273433738</v>
+        <v>15.86821552838459</v>
       </c>
       <c r="C13">
-        <v>7.751525630643329</v>
+        <v>7.566150651763983</v>
       </c>
       <c r="D13">
-        <v>9.07724978803663</v>
+        <v>6.604321296919391</v>
       </c>
       <c r="E13">
-        <v>8.154091743259597</v>
+        <v>11.91307636792187</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>81.57605874348641</v>
+        <v>70.38989419475246</v>
       </c>
       <c r="H13">
-        <v>21.95259203197565</v>
+        <v>23.79973035047864</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.19831567929904</v>
+        <v>12.00812942444405</v>
       </c>
       <c r="L13">
-        <v>6.645915941638517</v>
+        <v>10.09935929050122</v>
       </c>
       <c r="M13">
-        <v>11.16873406038674</v>
+        <v>15.72257387348546</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.49463951464073</v>
+        <v>15.84459226293783</v>
       </c>
       <c r="C14">
-        <v>7.718619295835905</v>
+        <v>7.554553836127996</v>
       </c>
       <c r="D14">
-        <v>8.990315546530423</v>
+        <v>6.580330725272685</v>
       </c>
       <c r="E14">
-        <v>8.139164864969386</v>
+        <v>11.91247092705801</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>81.01856343628775</v>
+        <v>70.22013808410334</v>
       </c>
       <c r="H14">
-        <v>21.84323258444392</v>
+        <v>23.77527093926995</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.0746319491659</v>
+        <v>11.99471964620491</v>
       </c>
       <c r="L14">
-        <v>6.626641032342091</v>
+        <v>10.09986375907033</v>
       </c>
       <c r="M14">
-        <v>11.11149158753538</v>
+        <v>15.72119722321516</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.39477557974759</v>
+        <v>15.83020346020969</v>
       </c>
       <c r="C15">
-        <v>7.69844453287642</v>
+        <v>7.547417353496601</v>
       </c>
       <c r="D15">
-        <v>8.936805211339669</v>
+        <v>6.56562640551339</v>
       </c>
       <c r="E15">
-        <v>8.130076483416273</v>
+        <v>11.91211846638037</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>80.67649575443923</v>
+        <v>70.11610381946315</v>
       </c>
       <c r="H15">
-        <v>21.77627153671015</v>
+        <v>23.76032018795658</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.99851916066626</v>
+        <v>11.98657798688024</v>
       </c>
       <c r="L15">
-        <v>6.614899058722052</v>
+        <v>10.10020025706616</v>
       </c>
       <c r="M15">
-        <v>11.07650081860844</v>
+        <v>15.72041636474284</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.81552530568211</v>
+        <v>15.74901196821596</v>
       </c>
       <c r="C16">
-        <v>7.582508421587642</v>
+        <v>7.50601403065451</v>
       </c>
       <c r="D16">
-        <v>8.626106253012727</v>
+        <v>6.481244017254481</v>
       </c>
       <c r="E16">
-        <v>8.07882014707973</v>
+        <v>11.91038087894843</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.7072576377014</v>
+        <v>69.51922283581629</v>
       </c>
       <c r="H16">
-        <v>21.39291716710675</v>
+        <v>23.67513413794673</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.5568490823758</v>
+        <v>11.94103974705748</v>
       </c>
       <c r="L16">
-        <v>6.548588969095223</v>
+        <v>10.10255039328399</v>
       </c>
       <c r="M16">
-        <v>10.87709305320331</v>
+        <v>15.71689900490278</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.45385559641626</v>
+        <v>15.7003552620157</v>
       </c>
       <c r="C17">
-        <v>7.51105993940597</v>
+        <v>7.480162323503444</v>
       </c>
       <c r="D17">
-        <v>8.431824385727255</v>
+        <v>6.429401954042138</v>
       </c>
       <c r="E17">
-        <v>8.048098158631417</v>
+        <v>11.90956714248788</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.4911994404336</v>
+        <v>69.15256118492175</v>
       </c>
       <c r="H17">
-        <v>21.15807143546724</v>
+        <v>23.623324088524</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.28089910105193</v>
+        <v>11.91411351405774</v>
       </c>
       <c r="L17">
-        <v>6.508773086609318</v>
+        <v>10.10436887693656</v>
       </c>
       <c r="M17">
-        <v>10.75576547195654</v>
+        <v>15.71559688761239</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.24347390525289</v>
+        <v>15.67280136965803</v>
       </c>
       <c r="C18">
-        <v>7.469831005968492</v>
+        <v>7.465127089115206</v>
       </c>
       <c r="D18">
-        <v>8.31870321268357</v>
+        <v>6.399567442662906</v>
       </c>
       <c r="E18">
-        <v>8.0306875244931</v>
+        <v>11.90919194010825</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.78884084848036</v>
+        <v>68.94153822427262</v>
       </c>
       <c r="H18">
-        <v>21.02311677505214</v>
+        <v>23.59369357257443</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.12030694170597</v>
+        <v>11.89900209200522</v>
       </c>
       <c r="L18">
-        <v>6.486185607956285</v>
+        <v>10.10555341421942</v>
       </c>
       <c r="M18">
-        <v>10.68635547626412</v>
+        <v>15.71516289494767</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.17183385854351</v>
+        <v>15.66354715016098</v>
       </c>
       <c r="C19">
-        <v>7.455847379029095</v>
+        <v>7.460007916837243</v>
       </c>
       <c r="D19">
-        <v>8.280163925360483</v>
+        <v>6.389464309489172</v>
       </c>
       <c r="E19">
-        <v>8.02483670443918</v>
+        <v>11.90908086158574</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>76.55053736869191</v>
+        <v>68.87007238011203</v>
       </c>
       <c r="H19">
-        <v>20.97744477689348</v>
+        <v>23.58369066196883</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.06560823838824</v>
+        <v>11.8939506031285</v>
       </c>
       <c r="L19">
-        <v>6.478591403245512</v>
+        <v>10.10597829420162</v>
       </c>
       <c r="M19">
-        <v>10.66291942232025</v>
+        <v>15.71507008907721</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.4925992908188</v>
+        <v>15.70549032351453</v>
       </c>
       <c r="C20">
-        <v>7.518679280691462</v>
+        <v>7.482931466933536</v>
       </c>
       <c r="D20">
-        <v>8.452647846847084</v>
+        <v>6.434922586209773</v>
       </c>
       <c r="E20">
-        <v>8.051341552708681</v>
+        <v>11.90964416108618</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.62095327389366</v>
+        <v>69.19160747842098</v>
       </c>
       <c r="H20">
-        <v>21.18305855903885</v>
+        <v>23.62882193597296</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.31046751597751</v>
+        <v>11.91694106295204</v>
       </c>
       <c r="L20">
-        <v>6.512979023614831</v>
+        <v>10.10416095536097</v>
       </c>
       <c r="M20">
-        <v>10.76864240219509</v>
+        <v>15.71570291464226</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.54240514038985</v>
+        <v>15.85151413306986</v>
       </c>
       <c r="C21">
-        <v>7.728288487672182</v>
+        <v>7.557967000279277</v>
       </c>
       <c r="D21">
-        <v>9.015904406942031</v>
+        <v>6.587379359219573</v>
       </c>
       <c r="E21">
-        <v>8.143537804555406</v>
+        <v>11.91264492828049</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>81.18243531502162</v>
+        <v>70.27001105791145</v>
       </c>
       <c r="H21">
-        <v>21.87534891753263</v>
+        <v>23.78244875378316</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.11103419197465</v>
+        <v>11.99864340092578</v>
       </c>
       <c r="L21">
-        <v>6.63228908195351</v>
+        <v>10.09970985506929</v>
       </c>
       <c r="M21">
-        <v>11.12829012108241</v>
+        <v>15.72158858218661</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.20833641486085</v>
+        <v>15.95060462933765</v>
       </c>
       <c r="C22">
-        <v>7.864405085764259</v>
+        <v>7.60552600853535</v>
       </c>
       <c r="D22">
-        <v>9.372296427534353</v>
+        <v>6.686629000117823</v>
       </c>
       <c r="E22">
-        <v>8.206229264500568</v>
+        <v>11.91542957222363</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>83.4838964552295</v>
+        <v>70.97254642457639</v>
       </c>
       <c r="H22">
-        <v>22.32890949901115</v>
+        <v>23.88426735031659</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.61835656640746</v>
+        <v>12.05528565487359</v>
       </c>
       <c r="L22">
-        <v>6.713140271674733</v>
+        <v>10.09803186465519</v>
       </c>
       <c r="M22">
-        <v>11.36657307405538</v>
+        <v>15.72822856088128</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.85471877664443</v>
+        <v>15.89739326288698</v>
       </c>
       <c r="C23">
-        <v>7.791820521326841</v>
+        <v>7.580278507382214</v>
       </c>
       <c r="D23">
-        <v>9.183130005738544</v>
+        <v>6.633704761004057</v>
       </c>
       <c r="E23">
-        <v>8.17254047176535</v>
+        <v>11.91386817145921</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>82.25794556455529</v>
+        <v>70.59785064642269</v>
       </c>
       <c r="H23">
-        <v>22.08672952137473</v>
+        <v>23.82979997988434</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.34900306074022</v>
+        <v>12.024762832281</v>
       </c>
       <c r="L23">
-        <v>6.66972092399217</v>
+        <v>10.09881495995728</v>
       </c>
       <c r="M23">
-        <v>11.23910401345027</v>
+        <v>15.72442969092654</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.4750909156728</v>
+        <v>15.70316745342253</v>
       </c>
       <c r="C24">
-        <v>7.515235054025399</v>
+        <v>7.48168007524673</v>
       </c>
       <c r="D24">
-        <v>8.443238007132889</v>
+        <v>6.432426798547375</v>
       </c>
       <c r="E24">
-        <v>8.049874431102573</v>
+        <v>11.90960905243687</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.56230162255531</v>
+        <v>69.17395533521506</v>
       </c>
       <c r="H24">
-        <v>21.17176168930925</v>
+        <v>23.62633587285217</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.29710570172434</v>
+        <v>11.91566157813934</v>
       </c>
       <c r="L24">
-        <v>6.511076575946191</v>
+        <v>10.10425452350153</v>
       </c>
       <c r="M24">
-        <v>10.76281967272909</v>
+        <v>15.71565399972816</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.01352953836505</v>
+        <v>15.51028533392204</v>
       </c>
       <c r="C25">
-        <v>7.211654319256398</v>
+        <v>7.368980385428903</v>
       </c>
       <c r="D25">
-        <v>7.592307767619482</v>
+        <v>6.214849854938401</v>
       </c>
       <c r="E25">
-        <v>7.927435634646386</v>
+        <v>11.90856574921685</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>72.38711168111615</v>
+        <v>67.63380494419594</v>
       </c>
       <c r="H25">
-        <v>20.1896493751585</v>
+        <v>23.41338724845117</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.09048573178285</v>
+        <v>11.81239533352901</v>
       </c>
       <c r="L25">
-        <v>6.351907372945139</v>
+        <v>10.11542183222757</v>
       </c>
       <c r="M25">
-        <v>10.26353117117752</v>
+        <v>15.71823265917943</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_169/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_169/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.38346847130473</v>
+        <v>12.9885766368563</v>
       </c>
       <c r="C2">
-        <v>7.280544208531666</v>
+        <v>6.982219468850633</v>
       </c>
       <c r="D2">
-        <v>6.055608943476014</v>
+        <v>6.917738035834893</v>
       </c>
       <c r="E2">
-        <v>11.91086431536556</v>
+        <v>7.845177334008064</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>66.50200929565972</v>
+        <v>68.48907484149561</v>
       </c>
       <c r="H2">
-        <v>23.26262981018506</v>
+        <v>19.47135823870222</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.74920845148932</v>
+        <v>10.13633239948612</v>
       </c>
       <c r="L2">
-        <v>10.12821394648012</v>
+        <v>6.244596703292485</v>
       </c>
       <c r="M2">
-        <v>15.73052549114441</v>
+        <v>9.909298254583431</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.30741413924237</v>
+        <v>12.27246949820786</v>
       </c>
       <c r="C3">
-        <v>7.217209755070515</v>
+        <v>6.822478539096433</v>
       </c>
       <c r="D3">
-        <v>5.949011235723607</v>
+        <v>6.433204174234562</v>
       </c>
       <c r="E3">
-        <v>11.91434090046809</v>
+        <v>7.794080537961808</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>65.73936761230179</v>
+        <v>65.79982112331632</v>
       </c>
       <c r="H3">
-        <v>23.16442790394495</v>
+        <v>18.9883345832137</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.71458864186634</v>
+        <v>9.447018273858179</v>
       </c>
       <c r="L3">
-        <v>10.13973818284178</v>
+        <v>6.177860571545553</v>
       </c>
       <c r="M3">
-        <v>15.74535004385269</v>
+        <v>9.678253417788177</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.26571530231473</v>
+        <v>11.8233083241935</v>
       </c>
       <c r="C4">
-        <v>7.176646755053707</v>
+        <v>6.722147691411112</v>
       </c>
       <c r="D4">
-        <v>5.884459735914807</v>
+        <v>6.167915606451039</v>
       </c>
       <c r="E4">
-        <v>11.91742384518966</v>
+        <v>7.764915755232571</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>65.27427657860711</v>
+        <v>64.12856538972584</v>
       </c>
       <c r="H4">
-        <v>23.10615278455427</v>
+        <v>18.69396341909297</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.697429111409</v>
+        <v>9.002234240299224</v>
       </c>
       <c r="L4">
-        <v>10.14822343438494</v>
+        <v>6.139781284736111</v>
       </c>
       <c r="M4">
-        <v>15.75765658065341</v>
+        <v>9.541097549300298</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.24999626968472</v>
+        <v>11.63811127690805</v>
       </c>
       <c r="C5">
-        <v>7.159696210582239</v>
+        <v>6.680677362589972</v>
       </c>
       <c r="D5">
-        <v>5.858418593625465</v>
+        <v>6.057697559607385</v>
       </c>
       <c r="E5">
-        <v>11.91891893549789</v>
+        <v>7.753574304070414</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>65.08569954138585</v>
+        <v>63.44309828727367</v>
       </c>
       <c r="H5">
-        <v>23.0829230476965</v>
+        <v>18.57462155439154</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.69147340558386</v>
+        <v>8.815498400001683</v>
       </c>
       <c r="L5">
-        <v>10.1520358042833</v>
+        <v>6.124983697291256</v>
       </c>
       <c r="M5">
-        <v>15.76347740914248</v>
+        <v>9.486429664807359</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.24746350080014</v>
+        <v>11.60723636716885</v>
       </c>
       <c r="C6">
-        <v>7.156856186138648</v>
+        <v>6.673755424435408</v>
       </c>
       <c r="D6">
-        <v>5.854111535101054</v>
+        <v>6.039271226062274</v>
       </c>
       <c r="E6">
-        <v>11.91918162331141</v>
+        <v>7.751723538642509</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>65.05444835294465</v>
+        <v>63.32903024910074</v>
       </c>
       <c r="H6">
-        <v>23.0790973122014</v>
+        <v>18.55484408011567</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.69054726128167</v>
+        <v>8.784158104611855</v>
       </c>
       <c r="L6">
-        <v>10.15269026412983</v>
+        <v>6.122569798526625</v>
       </c>
       <c r="M6">
-        <v>15.76449262011929</v>
+        <v>9.477427224325256</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.26549813294288</v>
+        <v>11.82081911181146</v>
       </c>
       <c r="C7">
-        <v>7.176419857143007</v>
+        <v>6.721590798783726</v>
       </c>
       <c r="D7">
-        <v>5.884107416709463</v>
+        <v>6.166437592201421</v>
       </c>
       <c r="E7">
-        <v>11.91744304135824</v>
+        <v>7.764760615849702</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>65.27172931044473</v>
+        <v>64.11933793254106</v>
       </c>
       <c r="H7">
-        <v>23.10583739134967</v>
+        <v>18.69235135038648</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.69734458439877</v>
+        <v>8.999738137609196</v>
       </c>
       <c r="L7">
-        <v>10.14827341354336</v>
+        <v>6.139578815494732</v>
       </c>
       <c r="M7">
-        <v>15.75773181975839</v>
+        <v>9.540355268674903</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.35621801892016</v>
+        <v>12.74374578133112</v>
       </c>
       <c r="C8">
-        <v>7.259054491909724</v>
+        <v>6.927595248376679</v>
       </c>
       <c r="D8">
-        <v>6.018690002533626</v>
+        <v>6.752603334325759</v>
       </c>
       <c r="E8">
-        <v>11.91186641047746</v>
+        <v>7.827093411387732</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>66.23848425260593</v>
+        <v>67.56632415036132</v>
       </c>
       <c r="H8">
-        <v>23.22835620715694</v>
+        <v>19.30438870856554</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.73642560493706</v>
+        <v>9.90308654523465</v>
       </c>
       <c r="L8">
-        <v>10.13189511640592</v>
+        <v>6.220979882261323</v>
       </c>
       <c r="M8">
-        <v>15.73497209314916</v>
+        <v>9.828681521875904</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.57295472600438</v>
+        <v>14.47118780818438</v>
       </c>
       <c r="C9">
-        <v>7.407791231284778</v>
+        <v>7.314749614831709</v>
       </c>
       <c r="D9">
-        <v>6.288085734798439</v>
+        <v>7.88624194236285</v>
       </c>
       <c r="E9">
-        <v>11.90844162672656</v>
+        <v>7.967415261446721</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>68.15266169559034</v>
+        <v>74.14468274309833</v>
       </c>
       <c r="H9">
-        <v>23.48420979387858</v>
+        <v>20.51979839154375</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.84521292168214</v>
+        <v>11.5069079116498</v>
       </c>
       <c r="L9">
-        <v>10.11095094396574</v>
+        <v>6.403963832895797</v>
       </c>
       <c r="M9">
-        <v>15.71575129746281</v>
+        <v>10.4297151141142</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.75462195375718</v>
+        <v>15.85647730530446</v>
       </c>
       <c r="C10">
-        <v>7.508941384810345</v>
+        <v>7.590644074083003</v>
       </c>
       <c r="D10">
-        <v>6.487156493430517</v>
+        <v>8.648090489945654</v>
       </c>
       <c r="E10">
-        <v>11.91048630107894</v>
+        <v>8.082361343456549</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>69.56104018032231</v>
+        <v>78.84562130818047</v>
       </c>
       <c r="H10">
-        <v>23.68106864910666</v>
+        <v>21.41973112967604</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.94416281100519</v>
+        <v>12.58808563656396</v>
       </c>
       <c r="L10">
-        <v>10.10236166170082</v>
+        <v>6.553174985489382</v>
       </c>
       <c r="M10">
-        <v>15.71709022764091</v>
+        <v>10.8909876414072</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.84183585341287</v>
+        <v>16.47556915919111</v>
       </c>
       <c r="C11">
-        <v>7.553191085169376</v>
+        <v>7.714762402824009</v>
       </c>
       <c r="D11">
-        <v>6.577519345354621</v>
+        <v>8.980098239298993</v>
       </c>
       <c r="E11">
-        <v>11.91240243474114</v>
+        <v>8.137423651814348</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>70.20024663608449</v>
+        <v>80.9531843880513</v>
       </c>
       <c r="H11">
-        <v>23.77241003029418</v>
+        <v>21.83042612172462</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.99315841865515</v>
+        <v>13.06009786336424</v>
       </c>
       <c r="L11">
-        <v>10.09992647656447</v>
+        <v>6.624391792231721</v>
       </c>
       <c r="M11">
-        <v>15.72104419807414</v>
+        <v>11.10479601148671</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.87549138891311</v>
+        <v>16.70653239404927</v>
       </c>
       <c r="C12">
-        <v>7.569693419000085</v>
+        <v>7.761608740638726</v>
       </c>
       <c r="D12">
-        <v>6.611673618744511</v>
+        <v>9.103803366566511</v>
       </c>
       <c r="E12">
-        <v>11.91326935124676</v>
+        <v>8.158690821728042</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>70.44192457230845</v>
+        <v>81.74677233163457</v>
       </c>
       <c r="H12">
-        <v>23.80724284476705</v>
+        <v>21.98613534655073</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.0122700233172</v>
+        <v>13.23610135908156</v>
       </c>
       <c r="L12">
-        <v>10.09921557206447</v>
+        <v>6.651852105949163</v>
       </c>
       <c r="M12">
-        <v>15.72302088022226</v>
+        <v>11.1863151798139</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.86821552838459</v>
+        <v>16.65694273433743</v>
       </c>
       <c r="C13">
-        <v>7.566150651763983</v>
+        <v>7.751525630643327</v>
       </c>
       <c r="D13">
-        <v>6.604321296919391</v>
+        <v>9.077249788036761</v>
       </c>
       <c r="E13">
-        <v>11.91307636792187</v>
+        <v>8.154091743259615</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>70.38989419475246</v>
+        <v>81.57605874348685</v>
       </c>
       <c r="H13">
-        <v>23.79973035047864</v>
+        <v>21.95259203197573</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.00812942444405</v>
+        <v>13.19831567929907</v>
       </c>
       <c r="L13">
-        <v>10.09935929050122</v>
+        <v>6.645915941638549</v>
       </c>
       <c r="M13">
-        <v>15.72257387348546</v>
+        <v>11.16873406038676</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.84459226293783</v>
+        <v>16.49463951464069</v>
       </c>
       <c r="C14">
-        <v>7.554553836127996</v>
+        <v>7.718619295835905</v>
       </c>
       <c r="D14">
-        <v>6.580330725272685</v>
+        <v>8.990315546530308</v>
       </c>
       <c r="E14">
-        <v>11.91247092705801</v>
+        <v>8.139164864969429</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>70.22013808410334</v>
+        <v>81.01856343628769</v>
       </c>
       <c r="H14">
-        <v>23.77527093926995</v>
+        <v>21.84323258444387</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.99471964620491</v>
+        <v>13.07463194916584</v>
       </c>
       <c r="L14">
-        <v>10.09986375907033</v>
+        <v>6.626641032342079</v>
       </c>
       <c r="M14">
-        <v>15.72119722321516</v>
+        <v>11.11149158753539</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.83020346020969</v>
+        <v>16.39477557974756</v>
       </c>
       <c r="C15">
-        <v>7.547417353496601</v>
+        <v>7.69844453287643</v>
       </c>
       <c r="D15">
-        <v>6.56562640551339</v>
+        <v>8.936805211339784</v>
       </c>
       <c r="E15">
-        <v>11.91211846638037</v>
+        <v>8.130076483416177</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>70.11610381946315</v>
+        <v>80.67649575443899</v>
       </c>
       <c r="H15">
-        <v>23.76032018795658</v>
+        <v>21.77627153671011</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.98657798688024</v>
+        <v>12.99851916066621</v>
       </c>
       <c r="L15">
-        <v>10.10020025706616</v>
+        <v>6.61489905872198</v>
       </c>
       <c r="M15">
-        <v>15.72041636474284</v>
+        <v>11.07650081860846</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.74901196821596</v>
+        <v>15.81552530568216</v>
       </c>
       <c r="C16">
-        <v>7.50601403065451</v>
+        <v>7.582508421587764</v>
       </c>
       <c r="D16">
-        <v>6.481244017254481</v>
+        <v>8.62610625301263</v>
       </c>
       <c r="E16">
-        <v>11.91038087894843</v>
+        <v>8.078820147079597</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>69.51922283581629</v>
+        <v>78.70725763770157</v>
       </c>
       <c r="H16">
-        <v>23.67513413794673</v>
+        <v>21.39291716710675</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.94103974705748</v>
+        <v>12.55684908237587</v>
       </c>
       <c r="L16">
-        <v>10.10255039328399</v>
+        <v>6.548588969095082</v>
       </c>
       <c r="M16">
-        <v>15.71689900490278</v>
+        <v>10.87709305320325</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.7003552620157</v>
+        <v>15.45385559641628</v>
       </c>
       <c r="C17">
-        <v>7.480162323503444</v>
+        <v>7.511059939405835</v>
       </c>
       <c r="D17">
-        <v>6.429401954042138</v>
+        <v>8.43182438572723</v>
       </c>
       <c r="E17">
-        <v>11.90956714248788</v>
+        <v>8.048098158631452</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>69.15256118492175</v>
+        <v>77.49119944043346</v>
       </c>
       <c r="H17">
-        <v>23.623324088524</v>
+        <v>21.15807143546721</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.91411351405774</v>
+        <v>12.28089910105189</v>
       </c>
       <c r="L17">
-        <v>10.10436887693656</v>
+        <v>6.508773086609305</v>
       </c>
       <c r="M17">
-        <v>15.71559688761239</v>
+        <v>10.75576547195655</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.67280136965803</v>
+        <v>15.24347390525287</v>
       </c>
       <c r="C18">
-        <v>7.465127089115206</v>
+        <v>7.469831005968356</v>
       </c>
       <c r="D18">
-        <v>6.399567442662906</v>
+        <v>8.318703212683486</v>
       </c>
       <c r="E18">
-        <v>11.90919194010825</v>
+        <v>8.030687524493144</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>68.94153822427262</v>
+        <v>76.78884084848063</v>
       </c>
       <c r="H18">
-        <v>23.59369357257443</v>
+        <v>21.02311677505217</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.89900209200522</v>
+        <v>12.12030694170601</v>
       </c>
       <c r="L18">
-        <v>10.10555341421942</v>
+        <v>6.486185607956287</v>
       </c>
       <c r="M18">
-        <v>15.71516289494767</v>
+        <v>10.6863554762641</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.66354715016098</v>
+        <v>15.17183385854349</v>
       </c>
       <c r="C19">
-        <v>7.460007916837243</v>
+        <v>7.455847379029219</v>
       </c>
       <c r="D19">
-        <v>6.389464309489172</v>
+        <v>8.280163925360384</v>
       </c>
       <c r="E19">
-        <v>11.90908086158574</v>
+        <v>8.024836704439235</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>68.87007238011203</v>
+        <v>76.55053736869192</v>
       </c>
       <c r="H19">
-        <v>23.58369066196883</v>
+        <v>20.97744477689352</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.8939506031285</v>
+        <v>12.06560823838826</v>
       </c>
       <c r="L19">
-        <v>10.10597829420162</v>
+        <v>6.478591403245525</v>
       </c>
       <c r="M19">
-        <v>15.71507008907721</v>
+        <v>10.66291942232027</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.70549032351453</v>
+        <v>15.49259929081882</v>
       </c>
       <c r="C20">
-        <v>7.482931466933536</v>
+        <v>7.518679280691338</v>
       </c>
       <c r="D20">
-        <v>6.434922586209773</v>
+        <v>8.452647846847002</v>
       </c>
       <c r="E20">
-        <v>11.90964416108618</v>
+        <v>8.051341552708683</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>69.19160747842098</v>
+        <v>77.62095327389322</v>
       </c>
       <c r="H20">
-        <v>23.62882193597296</v>
+        <v>21.1830585590388</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.91694106295204</v>
+        <v>12.31046751597756</v>
       </c>
       <c r="L20">
-        <v>10.10416095536097</v>
+        <v>6.512979023614837</v>
       </c>
       <c r="M20">
-        <v>15.71570291464226</v>
+        <v>10.76864240219508</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.85151413306986</v>
+        <v>16.54240514038977</v>
       </c>
       <c r="C21">
-        <v>7.557967000279277</v>
+        <v>7.728288487672073</v>
       </c>
       <c r="D21">
-        <v>6.587379359219573</v>
+        <v>9.01590440694196</v>
       </c>
       <c r="E21">
-        <v>11.91264492828049</v>
+        <v>8.143537804555288</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>70.27001105791145</v>
+        <v>81.18243531502159</v>
       </c>
       <c r="H21">
-        <v>23.78244875378316</v>
+        <v>21.87534891753264</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.99864340092578</v>
+        <v>13.1110341919746</v>
       </c>
       <c r="L21">
-        <v>10.09970985506929</v>
+        <v>6.632289081953482</v>
       </c>
       <c r="M21">
-        <v>15.72158858218661</v>
+        <v>11.12829012108243</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.95060462933765</v>
+        <v>17.20833641486077</v>
       </c>
       <c r="C22">
-        <v>7.60552600853535</v>
+        <v>7.86440508576426</v>
       </c>
       <c r="D22">
-        <v>6.686629000117823</v>
+        <v>9.372296427534337</v>
       </c>
       <c r="E22">
-        <v>11.91542957222363</v>
+        <v>8.206229264500468</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>70.97254642457639</v>
+        <v>83.48389645522956</v>
       </c>
       <c r="H22">
-        <v>23.88426735031659</v>
+        <v>22.32890949901115</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.05528565487359</v>
+        <v>13.6183565664074</v>
       </c>
       <c r="L22">
-        <v>10.09803186465519</v>
+        <v>6.713140271674689</v>
       </c>
       <c r="M22">
-        <v>15.72822856088128</v>
+        <v>11.36657307405538</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.89739326288698</v>
+        <v>16.85471877664446</v>
       </c>
       <c r="C23">
-        <v>7.580278507382214</v>
+        <v>7.791820521326848</v>
       </c>
       <c r="D23">
-        <v>6.633704761004057</v>
+        <v>9.183130005738512</v>
       </c>
       <c r="E23">
-        <v>11.91386817145921</v>
+        <v>8.172540471765313</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>70.59785064642269</v>
+        <v>82.25794556455526</v>
       </c>
       <c r="H23">
-        <v>23.82979997988434</v>
+        <v>22.08672952137473</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.024762832281</v>
+        <v>13.34900306074026</v>
       </c>
       <c r="L23">
-        <v>10.09881495995728</v>
+        <v>6.669720923992141</v>
       </c>
       <c r="M23">
-        <v>15.72442969092654</v>
+        <v>11.23910401345026</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.70316745342253</v>
+        <v>15.47509091567275</v>
       </c>
       <c r="C24">
-        <v>7.48168007524673</v>
+        <v>7.515235054025656</v>
       </c>
       <c r="D24">
-        <v>6.432426798547375</v>
+        <v>8.443238007132933</v>
       </c>
       <c r="E24">
-        <v>11.90960905243687</v>
+        <v>8.049874431102722</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>69.17395533521506</v>
+        <v>77.56230162255537</v>
       </c>
       <c r="H24">
-        <v>23.62633587285217</v>
+        <v>21.17176168930934</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.91566157813934</v>
+        <v>12.29710570172435</v>
       </c>
       <c r="L24">
-        <v>10.10425452350153</v>
+        <v>6.511076575946176</v>
       </c>
       <c r="M24">
-        <v>15.71565399972816</v>
+        <v>10.76281967272912</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.51028533392204</v>
+        <v>14.01352953836507</v>
       </c>
       <c r="C25">
-        <v>7.368980385428903</v>
+        <v>7.211654319256386</v>
       </c>
       <c r="D25">
-        <v>6.214849854938401</v>
+        <v>7.592307767619443</v>
       </c>
       <c r="E25">
-        <v>11.90856574921685</v>
+        <v>7.927435634646496</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>67.63380494419594</v>
+        <v>72.38711168111598</v>
       </c>
       <c r="H25">
-        <v>23.41338724845117</v>
+        <v>20.1896493751585</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.81239533352901</v>
+        <v>11.09048573178288</v>
       </c>
       <c r="L25">
-        <v>10.11542183222757</v>
+        <v>6.351907372945186</v>
       </c>
       <c r="M25">
-        <v>15.71823265917943</v>
+        <v>10.26353117117752</v>
       </c>
       <c r="N25">
         <v>0</v>
